--- a/www/ig/fhir/tddui/CodeSystem-tddui-identifier.xlsx
+++ b/www/ig/fhir/tddui/CodeSystem-tddui-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T14:57:40+00:00</t>
+    <t>2025-12-08T14:37:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/tddui/CodeSystem-tddui-identifier.xlsx
+++ b/www/ig/fhir/tddui/CodeSystem-tddui-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TDDUI FR Core CodeSystem v2-0203</t>
+    <t>TDDUI Patient Identifier</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:37:15+00:00</t>
+    <t>2026-02-06T14:53:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>TDDUI Patient's identifier</t>
+    <t>CodeSystem pour la définition des codes d'identifiant de l'usager</t>
   </si>
   <si>
     <t>Purpose</t>
